--- a/biology/Médecine/Cancer_des_surrénales/Cancer_des_surrénales.xlsx
+++ b/biology/Médecine/Cancer_des_surrénales/Cancer_des_surrénales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cancer_des_surr%C3%A9nales</t>
+          <t>Cancer_des_surrénales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corticosurrénalome, cancer de la surrénale ou carcinome corticosurrénalien, est une tumeur qui prend naissance dans le cortex de la glande surrénale[1]. Parce qu'il est peu fréquent (rare), il a une incidence annuelle de 0,5 à 2 cas sur 1 000 000[2], il y a un pic de cas chez les enfants jusqu'à 5 ans et les adultes dans la moyenne de 40-50 ans[3]. Habituellement, ces tumeurs déclenchent une surproduction d'hormones[2], une surproduction de catécholamines et produisent des quantités accrues de cortisol dans la circulation, ce qui peut entraîner des perturbations métaboliques[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corticosurrénalome, cancer de la surrénale ou carcinome corticosurrénalien, est une tumeur qui prend naissance dans le cortex de la glande surrénale. Parce qu'il est peu fréquent (rare), il a une incidence annuelle de 0,5 à 2 cas sur 1 000 000, il y a un pic de cas chez les enfants jusqu'à 5 ans et les adultes dans la moyenne de 40-50 ans. Habituellement, ces tumeurs déclenchent une surproduction d'hormones, une surproduction de catécholamines et produisent des quantités accrues de cortisol dans la circulation, ce qui peut entraîner des perturbations métaboliques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer_des_surr%C3%A9nales</t>
+          <t>Cancer_des_surrénales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Facteurs de risque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parce que les tumeurs surrénales sont peu fréquentes (rares), il n'y a toujours pas de facteurs de risque définitifs pour les tumeurs surrénales[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parce que les tumeurs surrénales sont peu fréquentes (rares), il n'y a toujours pas de facteurs de risque définitifs pour les tumeurs surrénales.
 Néoplasie endocrinienne multiple de type 2 ;
 Neurofibromatose de type 1 ;
 Syndrome de Beckwith-Wiedemann ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cancer_des_surr%C3%A9nales</t>
+          <t>Cancer_des_surrénales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Symptômes et signes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les tumeurs malignes (telles que le Cancer de la surrénale) à un stade avancé présentent souvent des symptômes similaires à ceux d'autres types de cancer, tels que[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les tumeurs malignes (telles que le Cancer de la surrénale) à un stade avancé présentent souvent des symptômes similaires à ceux d'autres types de cancer, tels que :
 anémie ;
 douleur abdominale ;
 fatigue ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cancer_des_surr%C3%A9nales</t>
+          <t>Cancer_des_surrénales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré un grand nombre de tests de diagnostic, il n'y a pas de bonne façon de prévenir les tumeurs surrénaliennes. En cas de symptômes, consultez un urologue ou un oncologue[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré un grand nombre de tests de diagnostic, il n'y a pas de bonne façon de prévenir les tumeurs surrénaliennes. En cas de symptômes, consultez un urologue ou un oncologue.
 </t>
         </is>
       </c>
